--- a/client/TimeTable/CSE_8_subject_teachers.xlsx
+++ b/client/TimeTable/CSE_8_subject_teachers.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
